--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.022120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Benson.Spring.022120.xlsx_with_dialog_acts.xlsx
@@ -1311,12 +1311,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4049,12 +4049,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4303,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4345,12 +4345,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4723,12 +4723,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4765,12 +4765,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5057,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5897,12 +5897,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6363,12 +6363,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6951,12 +6951,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7249,12 +7249,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7501,12 +7501,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7755,12 +7755,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7797,12 +7797,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7881,12 +7881,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8217,12 +8217,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8343,12 +8343,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9311,12 +9311,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9521,12 +9521,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9563,12 +9563,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10029,12 +10029,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10197,12 +10197,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10533,12 +10533,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10701,12 +10701,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10869,12 +10869,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11163,12 +11163,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11541,12 +11541,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11625,12 +11625,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12163,12 +12163,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12331,12 +12331,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12793,12 +12793,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13045,12 +13045,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13255,12 +13255,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13339,12 +13339,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13507,12 +13507,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13885,12 +13885,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13969,12 +13969,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14221,12 +14221,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14431,12 +14431,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15229,12 +15229,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15395,12 +15395,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15729,12 +15729,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
